--- a/ESP32.xlsx
+++ b/ESP32.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\700668\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\GitHub\aut_esp_32\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>GND</t>
   </si>
@@ -211,7 +211,22 @@
     <t>LED_BLUE</t>
   </si>
   <si>
-    <t>BOTÃO RESET WIFI</t>
+    <t>S. Alarme</t>
+  </si>
+  <si>
+    <t>Reset WIFI</t>
+  </si>
+  <si>
+    <t>S D A</t>
+  </si>
+  <si>
+    <t>S C L</t>
+  </si>
+  <si>
+    <t>IN5</t>
+  </si>
+  <si>
+    <t>RL5</t>
   </si>
 </sst>
 </file>
@@ -240,7 +255,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,36 +276,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -339,11 +360,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -354,29 +401,32 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -824,44 +874,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:K18"/>
+  <dimension ref="C3:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="9.140625" style="1"/>
     <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="2">
         <v>23</v>
       </c>
-      <c r="J4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="11"/>
-    </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="2">
         <v>22</v>
       </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="J5" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
@@ -870,7 +921,7 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
@@ -882,20 +933,19 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D8" s="2">
         <v>35</v>
       </c>
       <c r="I8" s="2">
         <v>21</v>
       </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="4" t="s">
+      <c r="J8" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="2">
@@ -904,9 +954,12 @@
       <c r="I9" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="4" t="s">
+      <c r="J9" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="2">
@@ -915,9 +968,12 @@
       <c r="I10" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="5" t="s">
+      <c r="J10" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="2">
@@ -930,8 +986,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="5" t="s">
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="2">
@@ -940,10 +996,12 @@
       <c r="I12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="6" t="s">
+      <c r="J12" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="2">
@@ -952,10 +1010,12 @@
       <c r="I13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="6" t="s">
+      <c r="J13" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="2">
@@ -964,12 +1024,12 @@
       <c r="I14" s="2">
         <v>4</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="7" t="s">
+    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="2">
@@ -978,12 +1038,12 @@
       <c r="I15" s="2">
         <v>2</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="7" t="s">
+    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2">
@@ -992,7 +1052,7 @@
       <c r="I16" s="2">
         <v>15</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1014,11 +1074,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="J4:K4"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>

--- a/ESP32.xlsx
+++ b/ESP32.xlsx
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>GND</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>RL5</t>
+  </si>
+  <si>
+    <t>RF</t>
   </si>
 </sst>
 </file>
@@ -255,7 +258,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,6 +313,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -390,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -426,6 +435,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -877,7 +889,7 @@
   <dimension ref="C3:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,6 +946,9 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="D8" s="2">
         <v>35</v>
       </c>

--- a/ESP32.xlsx
+++ b/ESP32.xlsx
@@ -399,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -438,6 +438,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -889,7 +892,7 @@
   <dimension ref="C3:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,7 +986,7 @@
       <c r="I10" s="2">
         <v>18</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="14" t="s">
         <v>29</v>
       </c>
     </row>
